--- a/Template/Example/Приказы.xlsx
+++ b/Template/Example/Приказы.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\rx-util-importdata\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Приказы и Распоряжения" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Приказы и Распоряжения'!$A$1:$P$2</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Приказы" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$P$2</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -174,86 +174,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>Содержание</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Вид документа</t>
-  </si>
-  <si>
-    <t>Файл</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Состояние</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>Рег. №</t>
-  </si>
-  <si>
-    <t>Рег. Дата</t>
-  </si>
-  <si>
-    <t>Наша организация</t>
-  </si>
-  <si>
-    <t>Подразделение</t>
-  </si>
-  <si>
-    <t>Исполнитель</t>
-  </si>
-  <si>
-    <t>Подготовил</t>
-  </si>
-  <si>
-    <t>Подписал</t>
-  </si>
-  <si>
-    <t>Журнал регистрации</t>
-  </si>
-  <si>
-    <t>Прим</t>
-  </si>
-  <si>
-    <t>Действующий</t>
-  </si>
-  <si>
-    <t>C:\Users\starkov_vv\Desktop\DocumentBody\Кириллица.docx</t>
-  </si>
-  <si>
-    <t>Отдел снабжения</t>
-  </si>
-  <si>
-    <t>Наша</t>
-  </si>
-  <si>
-    <t>Приказ</t>
-  </si>
-  <si>
-    <t>Соболева Надежда Николаевна</t>
-  </si>
-  <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t>04.06.2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <x:si>
+    <x:t>Содержание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Примечание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид документа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Файл</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Состояние</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рег. №</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рег. Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наша организация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Исполнитель</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подготовил</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подписал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Журнал регистрации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Прим</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Действующий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\starkov_vv\Desktop\DocumentBody\Кириллица.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел снабжения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наша</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приказ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Соболева Надежда Николаевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04.06.2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04.10.2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдена НОР "Наша".</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,151 +750,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21" style="9" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="32.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44239</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11"/>
-      <c r="K3" s="13"/>
-    </row>
-  </sheetData>
-  <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:P2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:S3"/>
+  <x:sheetViews>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.85546875" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <x:col min="3" max="3" width="21" style="9" customWidth="1"/>
+    <x:col min="4" max="4" width="22.85546875" style="9" customWidth="1"/>
+    <x:col min="5" max="5" width="21.28515625" style="9" customWidth="1"/>
+    <x:col min="6" max="6" width="21" style="9" customWidth="1"/>
+    <x:col min="7" max="7" width="62" style="10" customWidth="1"/>
+    <x:col min="8" max="8" width="20.42578125" style="10" customWidth="1"/>
+    <x:col min="9" max="9" width="21.28515625" style="10" customWidth="1"/>
+    <x:col min="10" max="10" width="21.28515625" style="2" customWidth="1"/>
+    <x:col min="11" max="11" width="17.85546875" style="2" customWidth="1"/>
+    <x:col min="12" max="13" width="32.140625" style="2" customWidth="1"/>
+    <x:col min="14" max="16384" width="9.140625" style="2"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F1" s="8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I1" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J1" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K1" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L1" s="6" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M1" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N1" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O1" s="14" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P1" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Q1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="R1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="S1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <x:c r="A2" s="4">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="3">
+        <x:v>44239</x:v>
+      </x:c>
+      <x:c r="C2" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D2" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F2" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="12" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I2" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M2" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="R2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <x:c r="A3" s="4"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="11"/>
+      <x:c r="K3" s="13"/>
+    </x:row>
+  </x:sheetData>
+  <x:sheetProtection sort="0" autoFilter="0"/>
+  <x:autoFilter ref="A1:P2"/>
+  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <x:legacyDrawing r:id="rId2"/>
+</x:worksheet>
 </file>